--- a/APM files/127410277/127410277 IMPORT remove old Promotions.xlsx
+++ b/APM files/127410277/127410277 IMPORT remove old Promotions.xlsx
@@ -1,37 +1,556 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\127410277\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BDA94A-0AC0-480D-9CEF-F0DCBA3F9ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14100" yWindow="5100" windowWidth="21510" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="165">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Rule ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Paused</t>
+  </si>
+  <si>
+    <t>101763878</t>
+  </si>
+  <si>
+    <t>805718120</t>
+  </si>
+  <si>
+    <t>806353903</t>
+  </si>
+  <si>
+    <t>101763875</t>
+  </si>
+  <si>
+    <t>803216021</t>
+  </si>
+  <si>
+    <t>805718118</t>
+  </si>
+  <si>
+    <t>806353900</t>
+  </si>
+  <si>
+    <t>8729dec3-622c-4a9c-8e81-8c05a9fcd326</t>
+  </si>
+  <si>
+    <t>101820819</t>
+  </si>
+  <si>
+    <t>805718085</t>
+  </si>
+  <si>
+    <t>806353845</t>
+  </si>
+  <si>
+    <t>101820794</t>
+  </si>
+  <si>
+    <t>805718114</t>
+  </si>
+  <si>
+    <t>806353889</t>
+  </si>
+  <si>
+    <t>101820844</t>
+  </si>
+  <si>
+    <t>805718128</t>
+  </si>
+  <si>
+    <t>806353914</t>
+  </si>
+  <si>
+    <t>101820790</t>
+  </si>
+  <si>
+    <t>805718112</t>
+  </si>
+  <si>
+    <t>806353883</t>
+  </si>
+  <si>
+    <t>101820828</t>
+  </si>
+  <si>
+    <t>805718090</t>
+  </si>
+  <si>
+    <t>806353857</t>
+  </si>
+  <si>
+    <t>101820839</t>
+  </si>
+  <si>
+    <t>805718121</t>
+  </si>
+  <si>
+    <t>806353904</t>
+  </si>
+  <si>
+    <t>101820843</t>
+  </si>
+  <si>
+    <t>803216391</t>
+  </si>
+  <si>
+    <t>805718123</t>
+  </si>
+  <si>
+    <t>806353908</t>
+  </si>
+  <si>
+    <t>bdce53eb-41a9-40be-acf0-d683b18eb6e4</t>
+  </si>
+  <si>
+    <t>101824197</t>
+  </si>
+  <si>
+    <t>803320583</t>
+  </si>
+  <si>
+    <t>803320737</t>
+  </si>
+  <si>
+    <t>805718098</t>
+  </si>
+  <si>
+    <t>806353865</t>
+  </si>
+  <si>
+    <t>87fb7129-7ed7-42ee-ba25-65cec8d0f413</t>
+  </si>
+  <si>
+    <t>101824186</t>
+  </si>
+  <si>
+    <t>803216331</t>
+  </si>
+  <si>
+    <t>805718113</t>
+  </si>
+  <si>
+    <t>806353886</t>
+  </si>
+  <si>
+    <t>101824307</t>
+  </si>
+  <si>
+    <t>805718106</t>
+  </si>
+  <si>
+    <t>806353876</t>
+  </si>
+  <si>
+    <t>101824295</t>
+  </si>
+  <si>
+    <t>806353902</t>
+  </si>
+  <si>
+    <t>101824289</t>
+  </si>
+  <si>
+    <t>803321553</t>
+  </si>
+  <si>
+    <t>805718117</t>
+  </si>
+  <si>
+    <t>806353891</t>
+  </si>
+  <si>
+    <t>a10ee19f-14c4-403a-a14c-432420da8714</t>
+  </si>
+  <si>
+    <t>101824256</t>
+  </si>
+  <si>
+    <t>803321368</t>
+  </si>
+  <si>
+    <t>803321410</t>
+  </si>
+  <si>
+    <t>805718096</t>
+  </si>
+  <si>
+    <t>806353862</t>
+  </si>
+  <si>
+    <t>8dc9c303-60f5-4a4f-a551-56e723343121</t>
+  </si>
+  <si>
+    <t>101824241</t>
+  </si>
+  <si>
+    <t>805718105</t>
+  </si>
+  <si>
+    <t>806353875</t>
+  </si>
+  <si>
+    <t>101824281</t>
+  </si>
+  <si>
+    <t>803321472</t>
+  </si>
+  <si>
+    <t>803321514</t>
+  </si>
+  <si>
+    <t>805718089</t>
+  </si>
+  <si>
+    <t>806353854</t>
+  </si>
+  <si>
+    <t>ad079591-bcd3-443d-9ea6-91701240363c</t>
+  </si>
+  <si>
+    <t>101824235</t>
+  </si>
+  <si>
+    <t>803321112</t>
+  </si>
+  <si>
+    <t>803321251</t>
+  </si>
+  <si>
+    <t>805718124</t>
+  </si>
+  <si>
+    <t>806353909</t>
+  </si>
+  <si>
+    <t>a6bd4133-60a7-40a2-8ded-36b14692778e</t>
+  </si>
+  <si>
+    <t>101824322</t>
+  </si>
+  <si>
+    <t>806353864</t>
+  </si>
+  <si>
+    <t>101852183</t>
+  </si>
+  <si>
+    <t>640d385d-5722-4713-9fdc-ede50bca867b</t>
+  </si>
+  <si>
+    <t>803319342</t>
+  </si>
+  <si>
+    <t>803319432</t>
+  </si>
+  <si>
+    <t>805718088</t>
+  </si>
+  <si>
+    <t>806353848</t>
+  </si>
+  <si>
+    <t>101852189</t>
+  </si>
+  <si>
+    <t>805718091</t>
+  </si>
+  <si>
+    <t>806353861</t>
+  </si>
+  <si>
+    <t>101852242</t>
+  </si>
+  <si>
+    <t>0e462d20-6f29-4171-b009-6c5bc4558e2a</t>
+  </si>
+  <si>
+    <t>6896ae55-8e6f-482a-9440-4fb9ab747248</t>
+  </si>
+  <si>
+    <t>803215774</t>
+  </si>
+  <si>
+    <t>805718078</t>
+  </si>
+  <si>
+    <t>806353843</t>
+  </si>
+  <si>
+    <t>101852135</t>
+  </si>
+  <si>
+    <t>805718119</t>
+  </si>
+  <si>
+    <t>806353901</t>
+  </si>
+  <si>
+    <t>101852200</t>
+  </si>
+  <si>
+    <t>805718122</t>
+  </si>
+  <si>
+    <t>806353907</t>
+  </si>
+  <si>
+    <t>101852163</t>
+  </si>
+  <si>
+    <t>805718097</t>
+  </si>
+  <si>
+    <t>806353863</t>
+  </si>
+  <si>
+    <t>101852151</t>
+  </si>
+  <si>
+    <t>805718107</t>
+  </si>
+  <si>
+    <t>806353877</t>
+  </si>
+  <si>
+    <t>101852128</t>
+  </si>
+  <si>
+    <t>806353898</t>
+  </si>
+  <si>
+    <t>101852268</t>
+  </si>
+  <si>
+    <t>805718130</t>
+  </si>
+  <si>
+    <t>806353917</t>
+  </si>
+  <si>
+    <t>101852370</t>
+  </si>
+  <si>
+    <t>803319189</t>
+  </si>
+  <si>
+    <t>803319267</t>
+  </si>
+  <si>
+    <t>805718077</t>
+  </si>
+  <si>
+    <t>806353839</t>
+  </si>
+  <si>
+    <t>e2cbc3e1-46ce-493f-89fb-f85105602cf4</t>
+  </si>
+  <si>
+    <t>101852328</t>
+  </si>
+  <si>
+    <t>805718125</t>
+  </si>
+  <si>
+    <t>806353910</t>
+  </si>
+  <si>
+    <t>101852309</t>
+  </si>
+  <si>
+    <t>806353851</t>
+  </si>
+  <si>
+    <t>101852253</t>
+  </si>
+  <si>
+    <t>805718092</t>
+  </si>
+  <si>
+    <t>806353860</t>
+  </si>
+  <si>
+    <t>101852398</t>
+  </si>
+  <si>
+    <t>805718127</t>
+  </si>
+  <si>
+    <t>806353912</t>
+  </si>
+  <si>
+    <t>101895940</t>
+  </si>
+  <si>
+    <t>805718099</t>
+  </si>
+  <si>
+    <t>806353868</t>
+  </si>
+  <si>
+    <t>101895854</t>
+  </si>
+  <si>
+    <t>805718126</t>
+  </si>
+  <si>
+    <t>806353913</t>
+  </si>
+  <si>
+    <t>101895887</t>
+  </si>
+  <si>
+    <t>1377be10-1b09-4f9d-9eb5-8595bcd93abe</t>
+  </si>
+  <si>
+    <t>803216178</t>
+  </si>
+  <si>
+    <t>805718103</t>
+  </si>
+  <si>
+    <t>806353873</t>
+  </si>
+  <si>
+    <t>101896023</t>
+  </si>
+  <si>
+    <t>806353850</t>
+  </si>
+  <si>
+    <t>101896014</t>
+  </si>
+  <si>
+    <t>805718102</t>
+  </si>
+  <si>
+    <t>806353871</t>
+  </si>
+  <si>
+    <t>101896009</t>
+  </si>
+  <si>
+    <t>805718101</t>
+  </si>
+  <si>
+    <t>806353870</t>
+  </si>
+  <si>
+    <t>101896173</t>
+  </si>
+  <si>
+    <t>805718131</t>
+  </si>
+  <si>
+    <t>806353921</t>
+  </si>
+  <si>
+    <t>101896098</t>
+  </si>
+  <si>
+    <t>805718116</t>
+  </si>
+  <si>
+    <t>806353896</t>
+  </si>
+  <si>
+    <t>101896071</t>
+  </si>
+  <si>
+    <t>806353867</t>
+  </si>
+  <si>
+    <t>101896116</t>
+  </si>
+  <si>
+    <t>805718109</t>
+  </si>
+  <si>
+    <t>806353881</t>
+  </si>
+  <si>
+    <t>103024794</t>
+  </si>
+  <si>
+    <t>7a3d554a-2fdf-4cff-aad8-19f9a5aaefd5</t>
+  </si>
+  <si>
+    <t>803065647</t>
+  </si>
+  <si>
+    <t>803065918</t>
+  </si>
+  <si>
+    <t>805718129</t>
+  </si>
+  <si>
+    <t>806353916</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +565,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,57 +889,1685 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Rule ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
         <v>123</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Paused</t>
-        </is>
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" t="s">
+        <v>141</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" t="s">
+        <v>158</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" t="s">
+        <v>163</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
